--- a/indicadores/tablas/pob/330112.xlsx
+++ b/indicadores/tablas/pob/330112.xlsx
@@ -405,7 +405,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -467,7 +467,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/pob/330112.xlsx
+++ b/indicadores/tablas/pob/330112.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -63,7 +63,13 @@
     <t xml:space="preserve">DEFINICIÓN</t>
   </si>
   <si>
+    <t xml:space="preserve">El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ningún integrante percibe Asignaciones Familaires - Plan de Equidad ni Tarjeta Uruguay Social en el total de hogares pobres</t>
+  </si>
+  <si>
     <t xml:space="preserve">CÁLCULO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para cada año calcular: (Cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ninguno de sus integrantes es beneficiario de Asignaciones Familiares - Plan de Equidad ni Tarjeta Uruguay Social/Cantidad de niños, niñas y adolescentes que residen en hogares pobres)*100</t>
   </si>
   <si>
     <t xml:space="preserve">TIPOIND</t>
@@ -405,7 +411,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -467,7 +473,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -505,28 +511,32 @@
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6"/>
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/indicadores/tablas/pob/330112.xlsx
+++ b/indicadores/tablas/pob/330112.xlsx
@@ -63,7 +63,7 @@
     <t xml:space="preserve">DEFINICIÓN</t>
   </si>
   <si>
-    <t xml:space="preserve">El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ningún integrante percibe Asignaciones Familaires - Plan de Equidad ni Tarjeta Uruguay Social en el total de hogares pobres</t>
+    <t xml:space="preserve">El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ningún integrante percibe Asignaciones Familaires - Plan de Equidad ni Tarjeta Uruguay Social en el total de hogares pobres.</t>
   </si>
   <si>
     <t xml:space="preserve">CÁLCULO</t>
@@ -426,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>0.15</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="3">
@@ -434,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.14</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="4">
@@ -442,7 +442,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>0.13</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="5">
@@ -450,7 +450,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.14</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="6">
@@ -458,7 +458,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.12</v>
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>

--- a/indicadores/tablas/pob/330112.xlsx
+++ b/indicadores/tablas/pob/330112.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Ficha técnica" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -21,73 +21,90 @@
     <t xml:space="preserve">Valor</t>
   </si>
   <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016</t>
+  </si>
+  <si>
     <t xml:space="preserve">2015</t>
   </si>
   <si>
-    <t xml:space="preserve">2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019</t>
-  </si>
-  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">DERECHO</t>
+    <t xml:space="preserve">nomindicador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje de NNA en hogares pobres que no perciben AFAM-PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derecho</t>
   </si>
   <si>
     <t xml:space="preserve">Seguridad Social</t>
   </si>
   <si>
-    <t xml:space="preserve">CONINDICADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NNA en hogares pobres que no perciben AFAM-PE ni TUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOMINDICADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porcentaje de NNA en hogares pobres que no perciben AFAM-PE ni TUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFINICIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ningún integrante percibe Asignaciones Familaires - Plan de Equidad ni Tarjeta Uruguay Social en el total de hogares pobres.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CÁLCULO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para cada año calcular: (Cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ninguno de sus integrantes es beneficiario de Asignaciones Familiares - Plan de Equidad ni Tarjeta Uruguay Social/Cantidad de niños, niñas y adolescentes que residen en hogares pobres)*100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIPOIND</t>
+    <t xml:space="preserve">conindicador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NNA en hogares pobres que no perciben AFAM-PE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tipoind</t>
   </si>
   <si>
     <t xml:space="preserve">Resultados</t>
   </si>
   <si>
-    <t xml:space="preserve">CITA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE</t>
+    <t xml:space="preserve">definicion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ningún integrante percibe Asignaciones Familiares - Plan de Equidad en el total de hogares pobres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para cada año calcular: (Cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ninguno de sus integrantes es beneficiario de Asignaciones Familiares - Plan de Equidad/Cantidad de niños, niñas y adolescentes que residen en hogares pobres)*100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desde marzo de 2020 hasta junio de 2021 se interrumpió el relevamiento presencial y se aplicó de manera telefónica un cuestionario restringido con el objetivo de continuar publicando los indicadores de ingresos y mercado de trabajo. En ese período la encuesta pasó a ser de paneles rotativos elegidos al azar a partir de los casos respondentes del año anterior. 
+En julio de 2021 el INE retomó la realización de encuestas presenciales, pero introdujo un cambio metodológico, ya que la ECH pasa a ser una encuesta de panel rotativo con periodicidad mensual compuesta por seis paneles o grupos de rotación, cada uno de los cuales es una muestra representativa de la población. Con esta nueva metodología, cada hogar seleccionado participa durante seis meses de la ECH.  
+Los indicadores de trabajo y seguridad social del año 2020 se construyen con la encuesta presencial realizada hasta marzo de 2020 y posteriormente con la encuesta telefónica panel (siempre que la información haya sido incluida en el formulario). Para el 2021, se calculan a partir de la encuesta telefónica del primer semestre de 2021 y el formulario telefónico de modalidad panel del segundo semestre de 2021. En el segundo semestre de 2021 el quintil de ingresos del hogar corresponde a los ingresos declarados durante la implantación del panel en la encuesta presencial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE (Hasta 2019) / A partir de 2020 con base en ECH - INE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirador DESCA - UMAD/FCS – INDDHH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -406,12 +423,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -426,7 +443,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>15.1</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="3">
@@ -434,7 +451,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>13.6</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="4">
@@ -442,7 +459,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>13.1</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="5">
@@ -450,7 +467,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>14.4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -458,7 +475,23 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>12.5</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>17.3</v>
       </c>
     </row>
   </sheetData>
@@ -468,75 +501,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/indicadores/tablas/pob/330112.xlsx
+++ b/indicadores/tablas/pob/330112.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -21,6 +21,15 @@
     <t xml:space="preserve">Valor</t>
   </si>
   <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">2021</t>
   </si>
   <si>
@@ -42,16 +51,13 @@
     <t xml:space="preserve">2015</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">nomindicador</t>
   </si>
   <si>
-    <t xml:space="preserve">Porcentaje de NNA en hogares pobres que no perciben AFAM-PE</t>
+    <t xml:space="preserve">Porcentaje de NNA en hogares pobres que no perciben AFAM-PE ni TUS</t>
   </si>
   <si>
     <t xml:space="preserve">derecho</t>
@@ -63,7 +69,7 @@
     <t xml:space="preserve">conindicador</t>
   </si>
   <si>
-    <t xml:space="preserve">NNA en hogares pobres que no perciben AFAM-PE</t>
+    <t xml:space="preserve">NNA en hogares pobres que no perciben AFAM-PE ni TUS</t>
   </si>
   <si>
     <t xml:space="preserve">tipoind</t>
@@ -75,13 +81,13 @@
     <t xml:space="preserve">definicion</t>
   </si>
   <si>
-    <t xml:space="preserve">El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ningún integrante percibe Asignaciones Familiares - Plan de Equidad en el total de hogares pobres.</t>
+    <t xml:space="preserve">El indicador mide el porcentaje de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ningún integrante percibe Asignaciones Familiares - Plan de Equidad ni Tarjeta Uruguay Social en el total de hogares pobres.</t>
   </si>
   <si>
     <t xml:space="preserve">calculo</t>
   </si>
   <si>
-    <t xml:space="preserve">Para cada año calcular: (Cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ninguno de sus integrantes es beneficiario de Asignaciones Familiares - Plan de Equidad/Cantidad de niños, niñas y adolescentes que residen en hogares pobres)*100</t>
+    <t xml:space="preserve">Para cada año calcular: (Cantidad de niños, niñas y adolescentes (hasta 17 años de edad) que residen en hogares en los que ninguno de sus integrantes es beneficiario de Asignaciones Familiares - Plan de Equidad ni Tarjeta Uruguay Social/Cantidad de niños, niñas y adolescentes que residen en hogares pobres)*100</t>
   </si>
   <si>
     <t xml:space="preserve">observaciones</t>
@@ -92,10 +98,17 @@
 Los indicadores de trabajo y seguridad social del año 2020 se construyen con la encuesta presencial realizada hasta marzo de 2020 y posteriormente con la encuesta telefónica panel (siempre que la información haya sido incluida en el formulario). Para el 2021, se calculan a partir de la encuesta telefónica del primer semestre de 2021 y el formulario telefónico de modalidad panel del segundo semestre de 2021. En el segundo semestre de 2021 el quintil de ingresos del hogar corresponde a los ingresos declarados durante la implantación del panel en la encuesta presencial.</t>
   </si>
   <si>
+    <t xml:space="preserve">actualizacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio 2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">cita</t>
   </si>
   <si>
-    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE (Hasta 2019) / A partir de 2020 con base en ECH - INE</t>
+    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE (Hasta 2019) / A partir de 2020 con base en ECH - INE
+</t>
   </si>
   <si>
     <t xml:space="preserve">Mirador DESCA - UMAD/FCS – INDDHH</t>
@@ -443,7 +456,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>17.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +464,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>17.6</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +472,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>13.9</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +480,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +488,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +496,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>15.6</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +504,31 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>17.3</v>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>15.1</v>
       </c>
     </row>
   </sheetData>
@@ -510,82 +547,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
